--- a/Task2/normalDist=graphed.xlsx
+++ b/Task2/normalDist=graphed.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Eclipse\Task2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\PHYS-488\Task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A66104-5DCB-491E-9902-7AE412E41DC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="10725"/>
+    <workbookView minimized="1" xWindow="31095" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normalDist-graphed" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,65 +592,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normally Distributed Numbers</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.755399192122261E-2"/>
+          <c:y val="3.542673107890499E-2"/>
+          <c:w val="0.8867626440311982"/>
+          <c:h val="0.83997235852764784"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1400,7 +1355,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1521,7 +1475,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2179,19 +2132,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2471,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
